--- a/sample_synthetic/concat_dataframe_tempafter.xlsx
+++ b/sample_synthetic/concat_dataframe_tempafter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK11"/>
+  <dimension ref="A1:FK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KEAX0372</t>
+          <t>BITX7492</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -1620,17 +1620,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SXZX8370</t>
+          <t>BITX7492</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -1887,62 +1887,62 @@
       <c r="ET3" t="inlineStr"/>
       <c r="EU3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EV3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EW3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE</t>
+          <t>Eurochem PRODUCTS ASSIST</t>
         </is>
       </c>
       <c r="EX3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EY3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EZ3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FA3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FB3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FC3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FD3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FE3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
-          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FG3" t="inlineStr">
@@ -1965,17 +1965,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CMRX3701</t>
+          <t>BITX7492</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -2066,10 +2066,14 @@
       <c r="AZ4" t="n">
         <v>1</v>
       </c>
-      <c r="BA4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>6100-1085</t>
+          <t>6110-1107</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr"/>
@@ -2079,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="n">
@@ -2232,62 +2236,62 @@
       <c r="ET4" t="inlineStr"/>
       <c r="EU4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EV4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EW4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPP</t>
+          <t>Eurochem PRODUCTS ASSIST</t>
         </is>
       </c>
       <c r="EX4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EY4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="EZ4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FA4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FB4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FC4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FD4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FE4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FF4" t="inlineStr">
         <is>
-          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
+          <t xml:space="preserve">Eurochem PRODUCTS ASSISTANCE ASSISTANCE </t>
         </is>
       </c>
       <c r="FG4" t="inlineStr">
@@ -2310,17 +2314,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OFUX3970</t>
+          <t>UHRX2985</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -2577,62 +2581,62 @@
       <c r="ET5" t="inlineStr"/>
       <c r="EU5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EV5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EW5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corp OPPORTUNITIES CORP </t>
+          <t>Assistance GROWTH EUROPE</t>
         </is>
       </c>
       <c r="EX5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EY5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EZ5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FA5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FB5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FC5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FD5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FE5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FF5" t="inlineStr">
         <is>
-          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FG5" t="inlineStr">
@@ -2655,17 +2659,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TJVX7613</t>
+          <t>UHRX2985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -2926,62 +2930,62 @@
       <c r="ET6" t="inlineStr"/>
       <c r="EU6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EV6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EW6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assistance LIMITED HLDG </t>
+          <t>Assistance GROWTH EUROPE</t>
         </is>
       </c>
       <c r="EX6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EY6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EZ6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FA6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FB6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FC6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FD6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FE6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FF6" t="inlineStr">
         <is>
-          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FG6" t="inlineStr">
@@ -3004,17 +3008,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLNX0729</t>
+          <t>UHRX2985</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3271,62 +3275,62 @@
       <c r="ET7" t="inlineStr"/>
       <c r="EU7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EV7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EW7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMIT</t>
+          <t>Assistance GROWTH EUROPE</t>
         </is>
       </c>
       <c r="EX7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EY7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="EZ7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FA7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FB7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FC7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FD7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FE7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FF7" t="inlineStr">
         <is>
-          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+          <t>Assistance GROWTH EUROPE LABUAN PRODUCTS</t>
         </is>
       </c>
       <c r="FG7" t="inlineStr">
@@ -3349,17 +3353,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QVLX3597</t>
+          <t>DHRX4826</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -3616,62 +3620,62 @@
       <c r="ET8" t="inlineStr"/>
       <c r="EU8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EV8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EW8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES L</t>
+          <t>Hldg EURO ASSISTANCE OPP</t>
         </is>
       </c>
       <c r="EX8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EY8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EZ8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FA8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FB8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FC8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FD8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FE8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FF8" t="inlineStr">
         <is>
-          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FG8" t="inlineStr">
@@ -3694,21 +3698,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HROX9870</t>
+          <t>DHRX4826</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1100282</v>
+        <v>1100016</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -3719,12 +3723,14 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2500</v>
+        <v>2509</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1710</v>
+      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
@@ -3751,15 +3757,17 @@
         <v>3126673</v>
       </c>
       <c r="AF9" t="n">
-        <v>3126673</v>
+        <v>3154886</v>
       </c>
       <c r="AG9" t="n">
         <v>3126673</v>
       </c>
       <c r="AH9" t="n">
-        <v>1100282</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
+        <v>1100016</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1100016</v>
+      </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
@@ -3772,7 +3780,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ZB14</t>
+          <t>ZB60</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr"/>
@@ -3785,18 +3793,20 @@
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ9" t="n">
         <v>1</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>13401311521520S827</t>
+          <t>AE17063724A0956016</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>S827-1085</t>
+          <t>6110-1107</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr"/>
@@ -3806,16 +3816,24 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="n">
         <v>3126673</v>
       </c>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1100016</v>
+      </c>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="n">
@@ -3951,62 +3969,62 @@
       <c r="ET9" t="inlineStr"/>
       <c r="EU9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EV9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EW9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG</t>
+          <t>Hldg EURO ASSISTANCE OPP</t>
         </is>
       </c>
       <c r="EX9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EY9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EZ9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FA9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FB9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FC9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FD9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FE9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FF9" t="inlineStr">
         <is>
-          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FG9" t="inlineStr">
@@ -4029,17 +4047,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XNSX2579</t>
+          <t>DHRX4826</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4300,62 +4318,62 @@
       <c r="ET10" t="inlineStr"/>
       <c r="EU10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EV10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EW10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIE</t>
+          <t>Hldg EURO ASSISTANCE OPP</t>
         </is>
       </c>
       <c r="EX10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EY10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="EZ10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FA10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FB10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FC10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FD10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FE10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FF10" t="inlineStr">
         <is>
-          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+          <t>Hldg EURO ASSISTANCE OPPORTUNITIES EUROC</t>
         </is>
       </c>
       <c r="FG10" t="inlineStr">
@@ -4378,17 +4396,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TUEX2810</t>
+          <t>XBGX7246</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-06-08</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4479,14 +4497,10 @@
       <c r="AZ11" t="n">
         <v>1</v>
       </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>AE17063724A0956016</t>
-        </is>
-      </c>
+      <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>6110-1107</t>
+          <t>6100-1085</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr"/>
@@ -4496,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="n">
@@ -4649,62 +4663,62 @@
       <c r="ET11" t="inlineStr"/>
       <c r="EU11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="EV11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="EW11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND</t>
+          <t xml:space="preserve">Corp OPPORTUNITIES CORP </t>
         </is>
       </c>
       <c r="EX11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="EY11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="EZ11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FA11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FB11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FC11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FD11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FE11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FF11" t="inlineStr">
         <is>
-          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
         </is>
       </c>
       <c r="FG11" t="inlineStr">
@@ -4720,6 +4734,6912 @@
       <c r="FI11" t="inlineStr"/>
       <c r="FJ11" t="inlineStr"/>
       <c r="FK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>XBGX7246</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr"/>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
+      <c r="ER12" t="inlineStr"/>
+      <c r="ES12" t="inlineStr"/>
+      <c r="ET12" t="inlineStr"/>
+      <c r="EU12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corp OPPORTUNITIES CORP </t>
+        </is>
+      </c>
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EZ12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FB12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FC12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FD12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FF12" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FG12" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH12" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI12" t="inlineStr"/>
+      <c r="FJ12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>XBGX7246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corp OPPORTUNITIES CORP </t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FC13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FD13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>Corp OPPORTUNITIES CORP LABUAN BRAND ASS</t>
+        </is>
+      </c>
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH13" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YQIX6413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr"/>
+      <c r="DG14" t="inlineStr"/>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr"/>
+      <c r="DU14" t="inlineStr"/>
+      <c r="DV14" t="inlineStr"/>
+      <c r="DW14" t="inlineStr"/>
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr"/>
+      <c r="EA14" t="inlineStr"/>
+      <c r="EB14" t="inlineStr"/>
+      <c r="EC14" t="inlineStr"/>
+      <c r="ED14" t="inlineStr"/>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr"/>
+      <c r="EH14" t="inlineStr"/>
+      <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr"/>
+      <c r="EP14" t="inlineStr"/>
+      <c r="EQ14" t="inlineStr"/>
+      <c r="ER14" t="inlineStr"/>
+      <c r="ES14" t="inlineStr"/>
+      <c r="ET14" t="inlineStr"/>
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assistance LIMITED HLDG </t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH14" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI14" t="inlineStr"/>
+      <c r="FJ14" t="inlineStr"/>
+      <c r="FK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YQIX6413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr"/>
+      <c r="DG15" t="inlineStr"/>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
+      <c r="DJ15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr"/>
+      <c r="DT15" t="inlineStr"/>
+      <c r="DU15" t="inlineStr"/>
+      <c r="DV15" t="inlineStr"/>
+      <c r="DW15" t="inlineStr"/>
+      <c r="DX15" t="inlineStr"/>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr"/>
+      <c r="EB15" t="inlineStr"/>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr"/>
+      <c r="EI15" t="inlineStr"/>
+      <c r="EJ15" t="inlineStr"/>
+      <c r="EK15" t="inlineStr"/>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr"/>
+      <c r="EO15" t="inlineStr"/>
+      <c r="EP15" t="inlineStr"/>
+      <c r="EQ15" t="inlineStr"/>
+      <c r="ER15" t="inlineStr"/>
+      <c r="ES15" t="inlineStr"/>
+      <c r="ET15" t="inlineStr"/>
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assistance LIMITED HLDG </t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FD15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FG15" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH15" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI15" t="inlineStr"/>
+      <c r="FJ15" t="inlineStr"/>
+      <c r="FK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YQIX6413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr"/>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr"/>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr"/>
+      <c r="EP16" t="inlineStr"/>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr"/>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assistance LIMITED HLDG </t>
+        </is>
+      </c>
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FA16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FC16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FD16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FF16" t="inlineStr">
+        <is>
+          <t>Assistance LIMITED HLDG ASSISTANCE.</t>
+        </is>
+      </c>
+      <c r="FG16" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH16" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr"/>
+      <c r="FK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>YTWX7389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr"/>
+      <c r="DG17" t="inlineStr"/>
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="inlineStr"/>
+      <c r="DJ17" t="inlineStr"/>
+      <c r="DK17" t="inlineStr"/>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr"/>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" t="inlineStr"/>
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr"/>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr"/>
+      <c r="DT17" t="inlineStr"/>
+      <c r="DU17" t="inlineStr"/>
+      <c r="DV17" t="inlineStr"/>
+      <c r="DW17" t="inlineStr"/>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr"/>
+      <c r="EA17" t="inlineStr"/>
+      <c r="EB17" t="inlineStr"/>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
+      <c r="EG17" t="inlineStr"/>
+      <c r="EH17" t="inlineStr"/>
+      <c r="EI17" t="inlineStr"/>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr"/>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr"/>
+      <c r="ET17" t="inlineStr"/>
+      <c r="EU17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMIT</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FD17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FF17" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FG17" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH17" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI17" t="inlineStr"/>
+      <c r="FJ17" t="inlineStr"/>
+      <c r="FK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>YTWX7389</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr"/>
+      <c r="DF18" t="inlineStr"/>
+      <c r="DG18" t="inlineStr"/>
+      <c r="DH18" t="inlineStr"/>
+      <c r="DI18" t="inlineStr"/>
+      <c r="DJ18" t="inlineStr"/>
+      <c r="DK18" t="inlineStr"/>
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr"/>
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr"/>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr"/>
+      <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr"/>
+      <c r="DV18" t="inlineStr"/>
+      <c r="DW18" t="inlineStr"/>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="inlineStr"/>
+      <c r="EB18" t="inlineStr"/>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="inlineStr"/>
+      <c r="EK18" t="inlineStr"/>
+      <c r="EL18" t="inlineStr"/>
+      <c r="EM18" t="inlineStr"/>
+      <c r="EN18" t="inlineStr"/>
+      <c r="EO18" t="inlineStr"/>
+      <c r="EP18" t="inlineStr"/>
+      <c r="EQ18" t="inlineStr"/>
+      <c r="ER18" t="inlineStr"/>
+      <c r="ES18" t="inlineStr"/>
+      <c r="ET18" t="inlineStr"/>
+      <c r="EU18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMIT</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FC18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FD18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FF18" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FG18" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH18" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI18" t="inlineStr"/>
+      <c r="FJ18" t="inlineStr"/>
+      <c r="FK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>YTWX7389</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr"/>
+      <c r="DG19" t="inlineStr"/>
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="inlineStr"/>
+      <c r="DJ19" t="inlineStr"/>
+      <c r="DK19" t="inlineStr"/>
+      <c r="DL19" t="inlineStr"/>
+      <c r="DM19" t="inlineStr"/>
+      <c r="DN19" t="inlineStr"/>
+      <c r="DO19" t="inlineStr"/>
+      <c r="DP19" t="inlineStr"/>
+      <c r="DQ19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr"/>
+      <c r="DS19" t="inlineStr"/>
+      <c r="DT19" t="inlineStr"/>
+      <c r="DU19" t="inlineStr"/>
+      <c r="DV19" t="inlineStr"/>
+      <c r="DW19" t="inlineStr"/>
+      <c r="DX19" t="inlineStr"/>
+      <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr"/>
+      <c r="EA19" t="inlineStr"/>
+      <c r="EB19" t="inlineStr"/>
+      <c r="EC19" t="inlineStr"/>
+      <c r="ED19" t="inlineStr"/>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr"/>
+      <c r="EI19" t="inlineStr"/>
+      <c r="EJ19" t="inlineStr"/>
+      <c r="EK19" t="inlineStr"/>
+      <c r="EL19" t="inlineStr"/>
+      <c r="EM19" t="inlineStr"/>
+      <c r="EN19" t="inlineStr"/>
+      <c r="EO19" t="inlineStr"/>
+      <c r="EP19" t="inlineStr"/>
+      <c r="EQ19" t="inlineStr"/>
+      <c r="ER19" t="inlineStr"/>
+      <c r="ES19" t="inlineStr"/>
+      <c r="ET19" t="inlineStr"/>
+      <c r="EU19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMIT</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FD19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>Growth BRAND BRAND LIMITED OPPORTUNITIES</t>
+        </is>
+      </c>
+      <c r="FG19" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH19" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI19" t="inlineStr"/>
+      <c r="FJ19" t="inlineStr"/>
+      <c r="FK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TXOX0318</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr"/>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="inlineStr"/>
+      <c r="DJ20" t="inlineStr"/>
+      <c r="DK20" t="inlineStr"/>
+      <c r="DL20" t="inlineStr"/>
+      <c r="DM20" t="inlineStr"/>
+      <c r="DN20" t="inlineStr"/>
+      <c r="DO20" t="inlineStr"/>
+      <c r="DP20" t="inlineStr"/>
+      <c r="DQ20" t="inlineStr"/>
+      <c r="DR20" t="inlineStr"/>
+      <c r="DS20" t="inlineStr"/>
+      <c r="DT20" t="inlineStr"/>
+      <c r="DU20" t="inlineStr"/>
+      <c r="DV20" t="inlineStr"/>
+      <c r="DW20" t="inlineStr"/>
+      <c r="DX20" t="inlineStr"/>
+      <c r="DY20" t="inlineStr"/>
+      <c r="DZ20" t="inlineStr"/>
+      <c r="EA20" t="inlineStr"/>
+      <c r="EB20" t="inlineStr"/>
+      <c r="EC20" t="inlineStr"/>
+      <c r="ED20" t="inlineStr"/>
+      <c r="EE20" t="inlineStr"/>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr"/>
+      <c r="EH20" t="inlineStr"/>
+      <c r="EI20" t="inlineStr"/>
+      <c r="EJ20" t="inlineStr"/>
+      <c r="EK20" t="inlineStr"/>
+      <c r="EL20" t="inlineStr"/>
+      <c r="EM20" t="inlineStr"/>
+      <c r="EN20" t="inlineStr"/>
+      <c r="EO20" t="inlineStr"/>
+      <c r="EP20" t="inlineStr"/>
+      <c r="EQ20" t="inlineStr"/>
+      <c r="ER20" t="inlineStr"/>
+      <c r="ES20" t="inlineStr"/>
+      <c r="ET20" t="inlineStr"/>
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES L</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FD20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FF20" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FG20" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH20" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI20" t="inlineStr"/>
+      <c r="FJ20" t="inlineStr"/>
+      <c r="FK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TXOX0318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr"/>
+      <c r="DB21" t="inlineStr"/>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr"/>
+      <c r="DE21" t="inlineStr"/>
+      <c r="DF21" t="inlineStr"/>
+      <c r="DG21" t="inlineStr"/>
+      <c r="DH21" t="inlineStr"/>
+      <c r="DI21" t="inlineStr"/>
+      <c r="DJ21" t="inlineStr"/>
+      <c r="DK21" t="inlineStr"/>
+      <c r="DL21" t="inlineStr"/>
+      <c r="DM21" t="inlineStr"/>
+      <c r="DN21" t="inlineStr"/>
+      <c r="DO21" t="inlineStr"/>
+      <c r="DP21" t="inlineStr"/>
+      <c r="DQ21" t="inlineStr"/>
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr"/>
+      <c r="DU21" t="inlineStr"/>
+      <c r="DV21" t="inlineStr"/>
+      <c r="DW21" t="inlineStr"/>
+      <c r="DX21" t="inlineStr"/>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr"/>
+      <c r="EA21" t="inlineStr"/>
+      <c r="EB21" t="inlineStr"/>
+      <c r="EC21" t="inlineStr"/>
+      <c r="ED21" t="inlineStr"/>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr"/>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr"/>
+      <c r="EP21" t="inlineStr"/>
+      <c r="EQ21" t="inlineStr"/>
+      <c r="ER21" t="inlineStr"/>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES L</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FD21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FF21" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FG21" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH21" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI21" t="inlineStr"/>
+      <c r="FJ21" t="inlineStr"/>
+      <c r="FK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TXOX0318</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr"/>
+      <c r="DB22" t="inlineStr"/>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr"/>
+      <c r="DE22" t="inlineStr"/>
+      <c r="DF22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr"/>
+      <c r="DH22" t="inlineStr"/>
+      <c r="DI22" t="inlineStr"/>
+      <c r="DJ22" t="inlineStr"/>
+      <c r="DK22" t="inlineStr"/>
+      <c r="DL22" t="inlineStr"/>
+      <c r="DM22" t="inlineStr"/>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" t="inlineStr"/>
+      <c r="DP22" t="inlineStr"/>
+      <c r="DQ22" t="inlineStr"/>
+      <c r="DR22" t="inlineStr"/>
+      <c r="DS22" t="inlineStr"/>
+      <c r="DT22" t="inlineStr"/>
+      <c r="DU22" t="inlineStr"/>
+      <c r="DV22" t="inlineStr"/>
+      <c r="DW22" t="inlineStr"/>
+      <c r="DX22" t="inlineStr"/>
+      <c r="DY22" t="inlineStr"/>
+      <c r="DZ22" t="inlineStr"/>
+      <c r="EA22" t="inlineStr"/>
+      <c r="EB22" t="inlineStr"/>
+      <c r="EC22" t="inlineStr"/>
+      <c r="ED22" t="inlineStr"/>
+      <c r="EE22" t="inlineStr"/>
+      <c r="EF22" t="inlineStr"/>
+      <c r="EG22" t="inlineStr"/>
+      <c r="EH22" t="inlineStr"/>
+      <c r="EI22" t="inlineStr"/>
+      <c r="EJ22" t="inlineStr"/>
+      <c r="EK22" t="inlineStr"/>
+      <c r="EL22" t="inlineStr"/>
+      <c r="EM22" t="inlineStr"/>
+      <c r="EN22" t="inlineStr"/>
+      <c r="EO22" t="inlineStr"/>
+      <c r="EP22" t="inlineStr"/>
+      <c r="EQ22" t="inlineStr"/>
+      <c r="ER22" t="inlineStr"/>
+      <c r="ES22" t="inlineStr"/>
+      <c r="ET22" t="inlineStr"/>
+      <c r="EU22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES L</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FD22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FF22" t="inlineStr">
+        <is>
+          <t>Eurochem OPPORTUNITIES LABUAN REALTY REA</t>
+        </is>
+      </c>
+      <c r="FG22" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH22" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI22" t="inlineStr"/>
+      <c r="FJ22" t="inlineStr"/>
+      <c r="FK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASWX7658</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>ZB14</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>13401311521520S827</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>S827-1085</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr"/>
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr"/>
+      <c r="DA23" t="inlineStr"/>
+      <c r="DB23" t="inlineStr"/>
+      <c r="DC23" t="inlineStr"/>
+      <c r="DD23" t="inlineStr"/>
+      <c r="DE23" t="inlineStr"/>
+      <c r="DF23" t="inlineStr"/>
+      <c r="DG23" t="inlineStr"/>
+      <c r="DH23" t="inlineStr"/>
+      <c r="DI23" t="inlineStr"/>
+      <c r="DJ23" t="inlineStr"/>
+      <c r="DK23" t="inlineStr"/>
+      <c r="DL23" t="inlineStr"/>
+      <c r="DM23" t="inlineStr"/>
+      <c r="DN23" t="inlineStr"/>
+      <c r="DO23" t="inlineStr"/>
+      <c r="DP23" t="inlineStr"/>
+      <c r="DQ23" t="inlineStr"/>
+      <c r="DR23" t="inlineStr"/>
+      <c r="DS23" t="inlineStr"/>
+      <c r="DT23" t="inlineStr"/>
+      <c r="DU23" t="inlineStr"/>
+      <c r="DV23" t="inlineStr"/>
+      <c r="DW23" t="inlineStr"/>
+      <c r="DX23" t="inlineStr"/>
+      <c r="DY23" t="inlineStr"/>
+      <c r="DZ23" t="inlineStr"/>
+      <c r="EA23" t="inlineStr"/>
+      <c r="EB23" t="inlineStr"/>
+      <c r="EC23" t="inlineStr"/>
+      <c r="ED23" t="inlineStr"/>
+      <c r="EE23" t="inlineStr"/>
+      <c r="EF23" t="inlineStr"/>
+      <c r="EG23" t="inlineStr"/>
+      <c r="EH23" t="inlineStr"/>
+      <c r="EI23" t="inlineStr"/>
+      <c r="EJ23" t="inlineStr"/>
+      <c r="EK23" t="inlineStr"/>
+      <c r="EL23" t="inlineStr"/>
+      <c r="EM23" t="inlineStr"/>
+      <c r="EN23" t="inlineStr"/>
+      <c r="EO23" t="inlineStr"/>
+      <c r="EP23" t="inlineStr"/>
+      <c r="EQ23" t="inlineStr"/>
+      <c r="ER23" t="inlineStr"/>
+      <c r="ES23" t="inlineStr"/>
+      <c r="ET23" t="inlineStr"/>
+      <c r="EU23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG</t>
+        </is>
+      </c>
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EY23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EZ23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FA23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FC23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FD23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FF23" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FG23" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH23" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI23" t="inlineStr"/>
+      <c r="FJ23" t="inlineStr"/>
+      <c r="FK23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ASWX7658</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>ZB14</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>13401311521520S827</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>S827-1085</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ24" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
+      <c r="CW24" t="inlineStr"/>
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr"/>
+      <c r="DE24" t="inlineStr"/>
+      <c r="DF24" t="inlineStr"/>
+      <c r="DG24" t="inlineStr"/>
+      <c r="DH24" t="inlineStr"/>
+      <c r="DI24" t="inlineStr"/>
+      <c r="DJ24" t="inlineStr"/>
+      <c r="DK24" t="inlineStr"/>
+      <c r="DL24" t="inlineStr"/>
+      <c r="DM24" t="inlineStr"/>
+      <c r="DN24" t="inlineStr"/>
+      <c r="DO24" t="inlineStr"/>
+      <c r="DP24" t="inlineStr"/>
+      <c r="DQ24" t="inlineStr"/>
+      <c r="DR24" t="inlineStr"/>
+      <c r="DS24" t="inlineStr"/>
+      <c r="DT24" t="inlineStr"/>
+      <c r="DU24" t="inlineStr"/>
+      <c r="DV24" t="inlineStr"/>
+      <c r="DW24" t="inlineStr"/>
+      <c r="DX24" t="inlineStr"/>
+      <c r="DY24" t="inlineStr"/>
+      <c r="DZ24" t="inlineStr"/>
+      <c r="EA24" t="inlineStr"/>
+      <c r="EB24" t="inlineStr"/>
+      <c r="EC24" t="inlineStr"/>
+      <c r="ED24" t="inlineStr"/>
+      <c r="EE24" t="inlineStr"/>
+      <c r="EF24" t="inlineStr"/>
+      <c r="EG24" t="inlineStr"/>
+      <c r="EH24" t="inlineStr"/>
+      <c r="EI24" t="inlineStr"/>
+      <c r="EJ24" t="inlineStr"/>
+      <c r="EK24" t="inlineStr"/>
+      <c r="EL24" t="inlineStr"/>
+      <c r="EM24" t="inlineStr"/>
+      <c r="EN24" t="inlineStr"/>
+      <c r="EO24" t="inlineStr"/>
+      <c r="EP24" t="inlineStr"/>
+      <c r="EQ24" t="inlineStr"/>
+      <c r="ER24" t="inlineStr"/>
+      <c r="ES24" t="inlineStr"/>
+      <c r="ET24" t="inlineStr"/>
+      <c r="EU24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG</t>
+        </is>
+      </c>
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EY24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EZ24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FA24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FC24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FD24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FF24" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FG24" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH24" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI24" t="inlineStr"/>
+      <c r="FJ24" t="inlineStr"/>
+      <c r="FK24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASWX7658</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1100282</v>
+      </c>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>ZB14</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>13401311521520S827</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>S827-1085</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="inlineStr"/>
+      <c r="DF25" t="inlineStr"/>
+      <c r="DG25" t="inlineStr"/>
+      <c r="DH25" t="inlineStr"/>
+      <c r="DI25" t="inlineStr"/>
+      <c r="DJ25" t="inlineStr"/>
+      <c r="DK25" t="inlineStr"/>
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr"/>
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" t="inlineStr"/>
+      <c r="DP25" t="inlineStr"/>
+      <c r="DQ25" t="inlineStr"/>
+      <c r="DR25" t="inlineStr"/>
+      <c r="DS25" t="inlineStr"/>
+      <c r="DT25" t="inlineStr"/>
+      <c r="DU25" t="inlineStr"/>
+      <c r="DV25" t="inlineStr"/>
+      <c r="DW25" t="inlineStr"/>
+      <c r="DX25" t="inlineStr"/>
+      <c r="DY25" t="inlineStr"/>
+      <c r="DZ25" t="inlineStr"/>
+      <c r="EA25" t="inlineStr"/>
+      <c r="EB25" t="inlineStr"/>
+      <c r="EC25" t="inlineStr"/>
+      <c r="ED25" t="inlineStr"/>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr"/>
+      <c r="EJ25" t="inlineStr"/>
+      <c r="EK25" t="inlineStr"/>
+      <c r="EL25" t="inlineStr"/>
+      <c r="EM25" t="inlineStr"/>
+      <c r="EN25" t="inlineStr"/>
+      <c r="EO25" t="inlineStr"/>
+      <c r="EP25" t="inlineStr"/>
+      <c r="EQ25" t="inlineStr"/>
+      <c r="ER25" t="inlineStr"/>
+      <c r="ES25" t="inlineStr"/>
+      <c r="ET25" t="inlineStr"/>
+      <c r="EU25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FB25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FC25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FD25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FE25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FF25" t="inlineStr">
+        <is>
+          <t>Hldg HLDG HLDG EURO HLDG PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="FG25" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH25" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI25" t="inlineStr"/>
+      <c r="FJ25" t="inlineStr"/>
+      <c r="FK25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>XTDX6785</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ26" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
+      <c r="CW26" t="inlineStr"/>
+      <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="inlineStr"/>
+      <c r="CZ26" t="inlineStr"/>
+      <c r="DA26" t="inlineStr"/>
+      <c r="DB26" t="inlineStr"/>
+      <c r="DC26" t="inlineStr"/>
+      <c r="DD26" t="inlineStr"/>
+      <c r="DE26" t="inlineStr"/>
+      <c r="DF26" t="inlineStr"/>
+      <c r="DG26" t="inlineStr"/>
+      <c r="DH26" t="inlineStr"/>
+      <c r="DI26" t="inlineStr"/>
+      <c r="DJ26" t="inlineStr"/>
+      <c r="DK26" t="inlineStr"/>
+      <c r="DL26" t="inlineStr"/>
+      <c r="DM26" t="inlineStr"/>
+      <c r="DN26" t="inlineStr"/>
+      <c r="DO26" t="inlineStr"/>
+      <c r="DP26" t="inlineStr"/>
+      <c r="DQ26" t="inlineStr"/>
+      <c r="DR26" t="inlineStr"/>
+      <c r="DS26" t="inlineStr"/>
+      <c r="DT26" t="inlineStr"/>
+      <c r="DU26" t="inlineStr"/>
+      <c r="DV26" t="inlineStr"/>
+      <c r="DW26" t="inlineStr"/>
+      <c r="DX26" t="inlineStr"/>
+      <c r="DY26" t="inlineStr"/>
+      <c r="DZ26" t="inlineStr"/>
+      <c r="EA26" t="inlineStr"/>
+      <c r="EB26" t="inlineStr"/>
+      <c r="EC26" t="inlineStr"/>
+      <c r="ED26" t="inlineStr"/>
+      <c r="EE26" t="inlineStr"/>
+      <c r="EF26" t="inlineStr"/>
+      <c r="EG26" t="inlineStr"/>
+      <c r="EH26" t="inlineStr"/>
+      <c r="EI26" t="inlineStr"/>
+      <c r="EJ26" t="inlineStr"/>
+      <c r="EK26" t="inlineStr"/>
+      <c r="EL26" t="inlineStr"/>
+      <c r="EM26" t="inlineStr"/>
+      <c r="EN26" t="inlineStr"/>
+      <c r="EO26" t="inlineStr"/>
+      <c r="EP26" t="inlineStr"/>
+      <c r="EQ26" t="inlineStr"/>
+      <c r="ER26" t="inlineStr"/>
+      <c r="ES26" t="inlineStr"/>
+      <c r="ET26" t="inlineStr"/>
+      <c r="EU26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EV26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EW26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIE</t>
+        </is>
+      </c>
+      <c r="EX26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EY26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EZ26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FA26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FB26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FC26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FD26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FE26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FF26" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FG26" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH26" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI26" t="inlineStr"/>
+      <c r="FJ26" t="inlineStr"/>
+      <c r="FK26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>XTDX6785</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="inlineStr"/>
+      <c r="DF27" t="inlineStr"/>
+      <c r="DG27" t="inlineStr"/>
+      <c r="DH27" t="inlineStr"/>
+      <c r="DI27" t="inlineStr"/>
+      <c r="DJ27" t="inlineStr"/>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr"/>
+      <c r="DR27" t="inlineStr"/>
+      <c r="DS27" t="inlineStr"/>
+      <c r="DT27" t="inlineStr"/>
+      <c r="DU27" t="inlineStr"/>
+      <c r="DV27" t="inlineStr"/>
+      <c r="DW27" t="inlineStr"/>
+      <c r="DX27" t="inlineStr"/>
+      <c r="DY27" t="inlineStr"/>
+      <c r="DZ27" t="inlineStr"/>
+      <c r="EA27" t="inlineStr"/>
+      <c r="EB27" t="inlineStr"/>
+      <c r="EC27" t="inlineStr"/>
+      <c r="ED27" t="inlineStr"/>
+      <c r="EE27" t="inlineStr"/>
+      <c r="EF27" t="inlineStr"/>
+      <c r="EG27" t="inlineStr"/>
+      <c r="EH27" t="inlineStr"/>
+      <c r="EI27" t="inlineStr"/>
+      <c r="EJ27" t="inlineStr"/>
+      <c r="EK27" t="inlineStr"/>
+      <c r="EL27" t="inlineStr"/>
+      <c r="EM27" t="inlineStr"/>
+      <c r="EN27" t="inlineStr"/>
+      <c r="EO27" t="inlineStr"/>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
+      <c r="ER27" t="inlineStr"/>
+      <c r="ES27" t="inlineStr"/>
+      <c r="ET27" t="inlineStr"/>
+      <c r="EU27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EV27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EW27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIE</t>
+        </is>
+      </c>
+      <c r="EX27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EY27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EZ27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FA27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FB27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FC27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FD27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FE27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FF27" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FG27" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH27" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI27" t="inlineStr"/>
+      <c r="FJ27" t="inlineStr"/>
+      <c r="FK27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>XTDX6785</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="inlineStr"/>
+      <c r="DF28" t="inlineStr"/>
+      <c r="DG28" t="inlineStr"/>
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="inlineStr"/>
+      <c r="DJ28" t="inlineStr"/>
+      <c r="DK28" t="inlineStr"/>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr"/>
+      <c r="DN28" t="inlineStr"/>
+      <c r="DO28" t="inlineStr"/>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr"/>
+      <c r="DR28" t="inlineStr"/>
+      <c r="DS28" t="inlineStr"/>
+      <c r="DT28" t="inlineStr"/>
+      <c r="DU28" t="inlineStr"/>
+      <c r="DV28" t="inlineStr"/>
+      <c r="DW28" t="inlineStr"/>
+      <c r="DX28" t="inlineStr"/>
+      <c r="DY28" t="inlineStr"/>
+      <c r="DZ28" t="inlineStr"/>
+      <c r="EA28" t="inlineStr"/>
+      <c r="EB28" t="inlineStr"/>
+      <c r="EC28" t="inlineStr"/>
+      <c r="ED28" t="inlineStr"/>
+      <c r="EE28" t="inlineStr"/>
+      <c r="EF28" t="inlineStr"/>
+      <c r="EG28" t="inlineStr"/>
+      <c r="EH28" t="inlineStr"/>
+      <c r="EI28" t="inlineStr"/>
+      <c r="EJ28" t="inlineStr"/>
+      <c r="EK28" t="inlineStr"/>
+      <c r="EL28" t="inlineStr"/>
+      <c r="EM28" t="inlineStr"/>
+      <c r="EN28" t="inlineStr"/>
+      <c r="EO28" t="inlineStr"/>
+      <c r="EP28" t="inlineStr"/>
+      <c r="EQ28" t="inlineStr"/>
+      <c r="ER28" t="inlineStr"/>
+      <c r="ES28" t="inlineStr"/>
+      <c r="ET28" t="inlineStr"/>
+      <c r="EU28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EV28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EW28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIE</t>
+        </is>
+      </c>
+      <c r="EX28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EY28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="EZ28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FA28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FB28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FC28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FD28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FE28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FF28" t="inlineStr">
+        <is>
+          <t>Realty CORP OPPORTUNITIES LABUAN LABUAN.</t>
+        </is>
+      </c>
+      <c r="FG28" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH28" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI28" t="inlineStr"/>
+      <c r="FJ28" t="inlineStr"/>
+      <c r="FK28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EZUX9853</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="inlineStr"/>
+      <c r="CY29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr"/>
+      <c r="DA29" t="inlineStr"/>
+      <c r="DB29" t="inlineStr"/>
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="inlineStr"/>
+      <c r="DE29" t="inlineStr"/>
+      <c r="DF29" t="inlineStr"/>
+      <c r="DG29" t="inlineStr"/>
+      <c r="DH29" t="inlineStr"/>
+      <c r="DI29" t="inlineStr"/>
+      <c r="DJ29" t="inlineStr"/>
+      <c r="DK29" t="inlineStr"/>
+      <c r="DL29" t="inlineStr"/>
+      <c r="DM29" t="inlineStr"/>
+      <c r="DN29" t="inlineStr"/>
+      <c r="DO29" t="inlineStr"/>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr"/>
+      <c r="DR29" t="inlineStr"/>
+      <c r="DS29" t="inlineStr"/>
+      <c r="DT29" t="inlineStr"/>
+      <c r="DU29" t="inlineStr"/>
+      <c r="DV29" t="inlineStr"/>
+      <c r="DW29" t="inlineStr"/>
+      <c r="DX29" t="inlineStr"/>
+      <c r="DY29" t="inlineStr"/>
+      <c r="DZ29" t="inlineStr"/>
+      <c r="EA29" t="inlineStr"/>
+      <c r="EB29" t="inlineStr"/>
+      <c r="EC29" t="inlineStr"/>
+      <c r="ED29" t="inlineStr"/>
+      <c r="EE29" t="inlineStr"/>
+      <c r="EF29" t="inlineStr"/>
+      <c r="EG29" t="inlineStr"/>
+      <c r="EH29" t="inlineStr"/>
+      <c r="EI29" t="inlineStr"/>
+      <c r="EJ29" t="inlineStr"/>
+      <c r="EK29" t="inlineStr"/>
+      <c r="EL29" t="inlineStr"/>
+      <c r="EM29" t="inlineStr"/>
+      <c r="EN29" t="inlineStr"/>
+      <c r="EO29" t="inlineStr"/>
+      <c r="EP29" t="inlineStr"/>
+      <c r="EQ29" t="inlineStr"/>
+      <c r="ER29" t="inlineStr"/>
+      <c r="ES29" t="inlineStr"/>
+      <c r="ET29" t="inlineStr"/>
+      <c r="EU29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EV29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EW29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND</t>
+        </is>
+      </c>
+      <c r="EX29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EY29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EZ29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FA29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FB29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FC29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FD29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FE29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FF29" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FG29" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH29" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI29" t="inlineStr"/>
+      <c r="FJ29" t="inlineStr"/>
+      <c r="FK29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EZUX9853</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr"/>
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr"/>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
+      <c r="DS30" t="inlineStr"/>
+      <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
+      <c r="DV30" t="inlineStr"/>
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr"/>
+      <c r="EA30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr"/>
+      <c r="EC30" t="inlineStr"/>
+      <c r="ED30" t="inlineStr"/>
+      <c r="EE30" t="inlineStr"/>
+      <c r="EF30" t="inlineStr"/>
+      <c r="EG30" t="inlineStr"/>
+      <c r="EH30" t="inlineStr"/>
+      <c r="EI30" t="inlineStr"/>
+      <c r="EJ30" t="inlineStr"/>
+      <c r="EK30" t="inlineStr"/>
+      <c r="EL30" t="inlineStr"/>
+      <c r="EM30" t="inlineStr"/>
+      <c r="EN30" t="inlineStr"/>
+      <c r="EO30" t="inlineStr"/>
+      <c r="EP30" t="inlineStr"/>
+      <c r="EQ30" t="inlineStr"/>
+      <c r="ER30" t="inlineStr"/>
+      <c r="ES30" t="inlineStr"/>
+      <c r="ET30" t="inlineStr"/>
+      <c r="EU30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EV30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EW30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND</t>
+        </is>
+      </c>
+      <c r="EX30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EY30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EZ30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FA30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FB30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FC30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FD30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FE30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FF30" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FG30" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH30" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI30" t="inlineStr"/>
+      <c r="FJ30" t="inlineStr"/>
+      <c r="FK30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EZUX9853</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2026-06-12</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>6100-1085</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ31" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="inlineStr"/>
+      <c r="CY31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr"/>
+      <c r="DA31" t="inlineStr"/>
+      <c r="DB31" t="inlineStr"/>
+      <c r="DC31" t="inlineStr"/>
+      <c r="DD31" t="inlineStr"/>
+      <c r="DE31" t="inlineStr"/>
+      <c r="DF31" t="inlineStr"/>
+      <c r="DG31" t="inlineStr"/>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
+      <c r="DJ31" t="inlineStr"/>
+      <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr"/>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr"/>
+      <c r="DP31" t="inlineStr"/>
+      <c r="DQ31" t="inlineStr"/>
+      <c r="DR31" t="inlineStr"/>
+      <c r="DS31" t="inlineStr"/>
+      <c r="DT31" t="inlineStr"/>
+      <c r="DU31" t="inlineStr"/>
+      <c r="DV31" t="inlineStr"/>
+      <c r="DW31" t="inlineStr"/>
+      <c r="DX31" t="inlineStr"/>
+      <c r="DY31" t="inlineStr"/>
+      <c r="DZ31" t="inlineStr"/>
+      <c r="EA31" t="inlineStr"/>
+      <c r="EB31" t="inlineStr"/>
+      <c r="EC31" t="inlineStr"/>
+      <c r="ED31" t="inlineStr"/>
+      <c r="EE31" t="inlineStr"/>
+      <c r="EF31" t="inlineStr"/>
+      <c r="EG31" t="inlineStr"/>
+      <c r="EH31" t="inlineStr"/>
+      <c r="EI31" t="inlineStr"/>
+      <c r="EJ31" t="inlineStr"/>
+      <c r="EK31" t="inlineStr"/>
+      <c r="EL31" t="inlineStr"/>
+      <c r="EM31" t="inlineStr"/>
+      <c r="EN31" t="inlineStr"/>
+      <c r="EO31" t="inlineStr"/>
+      <c r="EP31" t="inlineStr"/>
+      <c r="EQ31" t="inlineStr"/>
+      <c r="ER31" t="inlineStr"/>
+      <c r="ES31" t="inlineStr"/>
+      <c r="ET31" t="inlineStr"/>
+      <c r="EU31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EV31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EW31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND</t>
+        </is>
+      </c>
+      <c r="EX31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EY31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="EZ31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FA31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FB31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FC31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FD31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FE31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FF31" t="inlineStr">
+        <is>
+          <t>Hldg OPPORTUNITIES BRAND GROWTH CORP REA</t>
+        </is>
+      </c>
+      <c r="FG31" t="inlineStr">
+        <is>
+          <t>requester@deloitte.com</t>
+        </is>
+      </c>
+      <c r="FH31" t="inlineStr">
+        <is>
+          <t>JUPITER</t>
+        </is>
+      </c>
+      <c r="FI31" t="inlineStr"/>
+      <c r="FJ31" t="inlineStr"/>
+      <c r="FK31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
